--- a/biology/Zoologie/Edrioasteroidea/Edrioasteroidea.xlsx
+++ b/biology/Zoologie/Edrioasteroidea/Edrioasteroidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Edrioasteroidea (édrioastéroïdes en français) forment une classe éteinte d'échinodermes du Paléozoïque, connus uniquement sous forme fossile. Ils ont prospéré dans les océans du monde durant 244 millions d'années, du Cambrien (-516 millions d'années) au milieu du Permien (-272 Ma)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Edrioasteroidea (édrioastéroïdes en français) forment une classe éteinte d'échinodermes du Paléozoïque, connus uniquement sous forme fossile. Ils ont prospéré dans les océans du monde durant 244 millions d'années, du Cambrien (-516 millions d'années) au milieu du Permien (-272 Ma).
 </t>
         </is>
       </c>
@@ -511,18 +523,18 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les édrioastéroïdes se présentent sous la forme de petits disques arrondis parcourus par cinq zones ambulacraires en forme d'étoile aux branches généralement recourbées en spirale, et convergeant vers la bouche centrale. L'anus, triangulaire, était disposé non loin de la bouche, comme souvent chez les échinodermes sessiles. Leur corps était composé de plaques calcaires imbriquées, de structure stéréomique. Bien que pouvant ressembler à des astérozoaires, les édrioastéroïdes étaient en réalité probablement des organismes sessiles, peut-être attachés au substrat par une courte tige calcaire
-[2].
+.
 			Schéma anatomique d'un édrioastéroïde (Encyclopedia Britannica).
 			Cystaster stellatus (Ordovicien).
 			Streptaster vorticellatus (Ordovicien supérieur).
 			Camptostroma roddyi (Cambrien inférieur, NMNH).
 			Carneyella cincinnatensis (Ordovicien, MNHN).
 			Lepidodiscus milleri.
-Écologie et comportement
-On sait encore peu de choses sur la biologie des édrioastéroïdes. Leur mode de vie était sessile, mais ils ont souvent été retrouvés à la surface d'animaux vagiles (notamment des trilobites) : ce mode de vie épibiotique était peut-être une sorte de commensalisme.
 </t>
         </is>
       </c>
@@ -548,13 +560,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Phylogénie</t>
+          <t>Description et caractéristiques</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les fossiles d'édrioastéroïdes se différencient les uns des autres par les formes arborées par les ambulacres, ainsi que les éventuelles ornementations et la disposition des plaques.
-Les mystérieux fossiles précambriens appelés Tribrachidium et surtout Arkarua sont parfois considérés comme des formes ancestrales des édrioastéroïdes, mais l'absence de stéréome sur ces fossiles rend cette classification très incertaine[3].
+          <t>Écologie et comportement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On sait encore peu de choses sur la biologie des édrioastéroïdes. Leur mode de vie était sessile, mais ils ont souvent été retrouvés à la surface d'animaux vagiles (notamment des trilobites) : ce mode de vie épibiotique était peut-être une sorte de commensalisme.
 </t>
         </is>
       </c>
@@ -580,12 +597,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fossiles d'édrioastéroïdes se différencient les uns des autres par les formes arborées par les ambulacres, ainsi que les éventuelles ornementations et la disposition des plaques.
+Les mystérieux fossiles précambriens appelés Tribrachidium et surtout Arkarua sont parfois considérés comme des formes ancestrales des édrioastéroïdes, mais l'absence de stéréome sur ces fossiles rend cette classification très incertaine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Edrioasteroidea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Edrioasteroidea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (6 juin 2016)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (6 juin 2016) :
 ordre Edrioasterida Bell, 1976 †
 famille Pyrgocystidae Kesling 1967 †
 genre Pyrgocystis Bather, 1915 †
